--- a/test17-interlace/filesize.xlsx
+++ b/test17-interlace/filesize.xlsx
@@ -2725,8 +2725,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="303">
+  <cellStyleXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3044,7 +3046,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="303">
+  <cellStyles count="305">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3196,6 +3198,7 @@
     <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3347,6 +3350,7 @@
     <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3679,10 +3683,10 @@
   <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F110" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3:M122"/>
+      <selection pane="bottomRight" activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4047,43 +4051,43 @@
         <v>33</v>
       </c>
       <c r="C9" s="6">
-        <v>3302524</v>
+        <v>3302630</v>
       </c>
       <c r="D9" t="s">
         <v>153</v>
       </c>
       <c r="E9" s="6">
-        <v>3302552</v>
+        <v>3302634</v>
       </c>
       <c r="F9" t="s">
         <v>393</v>
       </c>
       <c r="G9" s="6">
-        <v>3302524</v>
+        <v>3302634</v>
       </c>
       <c r="H9" t="s">
         <v>513</v>
       </c>
       <c r="I9" s="6">
-        <v>3296185</v>
+        <v>3295953</v>
       </c>
       <c r="J9" t="s">
         <v>633</v>
       </c>
       <c r="K9" s="6">
-        <v>3302228</v>
+        <v>3302634</v>
       </c>
       <c r="L9" t="s">
         <v>753</v>
       </c>
       <c r="M9" s="6">
-        <v>3302524</v>
+        <v>3302630</v>
       </c>
       <c r="N9" t="s">
         <v>273</v>
       </c>
       <c r="O9" s="6">
-        <v>3302524</v>
+        <v>3302634</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -4091,43 +4095,43 @@
         <v>34</v>
       </c>
       <c r="C10" s="6">
-        <v>880130</v>
+        <v>879394</v>
       </c>
       <c r="D10" t="s">
         <v>154</v>
       </c>
       <c r="E10" s="6">
-        <v>880130</v>
+        <v>879394</v>
       </c>
       <c r="F10" t="s">
         <v>394</v>
       </c>
       <c r="G10" s="6">
-        <v>880130</v>
+        <v>879397</v>
       </c>
       <c r="H10" t="s">
         <v>514</v>
       </c>
       <c r="I10" s="6">
-        <v>880130</v>
+        <v>879397</v>
       </c>
       <c r="J10" t="s">
         <v>634</v>
       </c>
       <c r="K10" s="6">
-        <v>880130</v>
+        <v>879392</v>
       </c>
       <c r="L10" t="s">
         <v>754</v>
       </c>
       <c r="M10" s="6">
-        <v>880130</v>
+        <v>879397</v>
       </c>
       <c r="N10" t="s">
         <v>274</v>
       </c>
       <c r="O10" s="6">
-        <v>880130</v>
+        <v>879394</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -4135,43 +4139,43 @@
         <v>35</v>
       </c>
       <c r="C11" s="6">
-        <v>501573</v>
+        <v>501517</v>
       </c>
       <c r="D11" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="6">
-        <v>501579</v>
+        <v>501531</v>
       </c>
       <c r="F11" t="s">
         <v>395</v>
       </c>
       <c r="G11" s="6">
-        <v>501579</v>
+        <v>501550</v>
       </c>
       <c r="H11" t="s">
         <v>515</v>
       </c>
       <c r="I11" s="6">
-        <v>501581</v>
+        <v>501543</v>
       </c>
       <c r="J11" t="s">
         <v>635</v>
       </c>
       <c r="K11" s="6">
-        <v>501579</v>
+        <v>501536</v>
       </c>
       <c r="L11" t="s">
         <v>755</v>
       </c>
       <c r="M11" s="6">
-        <v>501579</v>
+        <v>501534</v>
       </c>
       <c r="N11" t="s">
         <v>275</v>
       </c>
       <c r="O11" s="6">
-        <v>501581</v>
+        <v>501517</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -4311,43 +4315,43 @@
         <v>39</v>
       </c>
       <c r="C15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="D15" t="s">
         <v>159</v>
       </c>
       <c r="E15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="F15" t="s">
         <v>399</v>
       </c>
       <c r="G15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="H15" t="s">
         <v>519</v>
       </c>
       <c r="I15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="J15" t="s">
         <v>639</v>
       </c>
       <c r="K15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="L15" t="s">
         <v>759</v>
       </c>
       <c r="M15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="N15" t="s">
         <v>279</v>
       </c>
       <c r="O15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -4355,43 +4359,43 @@
         <v>40</v>
       </c>
       <c r="C16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="D16" t="s">
         <v>160</v>
       </c>
       <c r="E16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="F16" t="s">
         <v>400</v>
       </c>
       <c r="G16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="H16" t="s">
         <v>520</v>
       </c>
       <c r="I16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="J16" t="s">
         <v>640</v>
       </c>
       <c r="K16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="L16" t="s">
         <v>760</v>
       </c>
       <c r="M16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="N16" t="s">
         <v>280</v>
       </c>
       <c r="O16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -4443,43 +4447,43 @@
         <v>42</v>
       </c>
       <c r="C18" s="6">
-        <v>3735295</v>
+        <v>3740490</v>
       </c>
       <c r="D18" t="s">
         <v>162</v>
       </c>
       <c r="E18" s="6">
-        <v>3735181</v>
+        <v>3740600</v>
       </c>
       <c r="F18" t="s">
         <v>402</v>
       </c>
       <c r="G18" s="6">
-        <v>3735295</v>
+        <v>3740600</v>
       </c>
       <c r="H18" t="s">
         <v>522</v>
       </c>
       <c r="I18" s="6">
-        <v>3751569</v>
+        <v>3756322</v>
       </c>
       <c r="J18" t="s">
         <v>642</v>
       </c>
       <c r="K18" s="6">
-        <v>3735295</v>
+        <v>3740600</v>
       </c>
       <c r="L18" t="s">
         <v>762</v>
       </c>
       <c r="M18" s="6">
-        <v>3735295</v>
+        <v>3740600</v>
       </c>
       <c r="N18" t="s">
         <v>282</v>
       </c>
       <c r="O18" s="6">
-        <v>3735295</v>
+        <v>3740600</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -4487,43 +4491,43 @@
         <v>43</v>
       </c>
       <c r="C19" s="6">
-        <v>433156</v>
+        <v>433152</v>
       </c>
       <c r="D19" t="s">
         <v>163</v>
       </c>
       <c r="E19" s="6">
-        <v>433211</v>
+        <v>433176</v>
       </c>
       <c r="F19" t="s">
         <v>403</v>
       </c>
       <c r="G19" s="6">
-        <v>433211</v>
+        <v>433281</v>
       </c>
       <c r="H19" t="s">
         <v>523</v>
       </c>
       <c r="I19" s="6">
-        <v>433211</v>
+        <v>433281</v>
       </c>
       <c r="J19" t="s">
         <v>643</v>
       </c>
       <c r="K19" s="6">
-        <v>433156</v>
+        <v>433281</v>
       </c>
       <c r="L19" t="s">
         <v>763</v>
       </c>
       <c r="M19" s="6">
-        <v>433211</v>
+        <v>433061</v>
       </c>
       <c r="N19" t="s">
         <v>283</v>
       </c>
       <c r="O19" s="6">
-        <v>433156</v>
+        <v>433176</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -4531,43 +4535,43 @@
         <v>44</v>
       </c>
       <c r="C20" s="6">
-        <v>961077</v>
+        <v>960012</v>
       </c>
       <c r="D20" t="s">
         <v>164</v>
       </c>
       <c r="E20" s="6">
-        <v>961079</v>
+        <v>960238</v>
       </c>
       <c r="F20" t="s">
         <v>404</v>
       </c>
       <c r="G20" s="6">
-        <v>961015</v>
+        <v>960131</v>
       </c>
       <c r="H20" t="s">
         <v>524</v>
       </c>
       <c r="I20" s="6">
-        <v>960423</v>
+        <v>958988</v>
       </c>
       <c r="J20" t="s">
         <v>644</v>
       </c>
       <c r="K20" s="6">
-        <v>961077</v>
+        <v>960081</v>
       </c>
       <c r="L20" t="s">
         <v>764</v>
       </c>
       <c r="M20" s="6">
-        <v>960761</v>
+        <v>960166</v>
       </c>
       <c r="N20" t="s">
         <v>284</v>
       </c>
       <c r="O20" s="6">
-        <v>961079</v>
+        <v>960023</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -4575,43 +4579,43 @@
         <v>45</v>
       </c>
       <c r="C21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="D21" t="s">
         <v>165</v>
       </c>
       <c r="E21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="F21" t="s">
         <v>405</v>
       </c>
       <c r="G21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="H21" t="s">
         <v>525</v>
       </c>
       <c r="I21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="J21" t="s">
         <v>645</v>
       </c>
       <c r="K21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="L21" t="s">
         <v>765</v>
       </c>
       <c r="M21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="N21" t="s">
         <v>285</v>
       </c>
       <c r="O21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -4619,43 +4623,43 @@
         <v>46</v>
       </c>
       <c r="C22" s="6">
-        <v>2639507</v>
+        <v>2640349</v>
       </c>
       <c r="D22" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="6">
-        <v>2639507</v>
+        <v>2640349</v>
       </c>
       <c r="F22" t="s">
         <v>406</v>
       </c>
       <c r="G22" s="6">
-        <v>2639507</v>
+        <v>2640349</v>
       </c>
       <c r="H22" t="s">
         <v>526</v>
       </c>
       <c r="I22" s="6">
-        <v>2635325</v>
+        <v>2634900</v>
       </c>
       <c r="J22" t="s">
         <v>646</v>
       </c>
       <c r="K22" s="6">
-        <v>2639507</v>
+        <v>2640349</v>
       </c>
       <c r="L22" t="s">
         <v>766</v>
       </c>
       <c r="M22" s="6">
-        <v>2639507</v>
+        <v>2640349</v>
       </c>
       <c r="N22" t="s">
         <v>286</v>
       </c>
       <c r="O22" s="6">
-        <v>2639507</v>
+        <v>2640349</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -4663,43 +4667,43 @@
         <v>47</v>
       </c>
       <c r="C23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="D23" t="s">
         <v>167</v>
       </c>
       <c r="E23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="F23" t="s">
         <v>407</v>
       </c>
       <c r="G23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="H23" t="s">
         <v>527</v>
       </c>
       <c r="I23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="J23" t="s">
         <v>647</v>
       </c>
       <c r="K23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="L23" t="s">
         <v>767</v>
       </c>
       <c r="M23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="N23" t="s">
         <v>287</v>
       </c>
       <c r="O23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -4707,43 +4711,43 @@
         <v>48</v>
       </c>
       <c r="C24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="D24" t="s">
         <v>168</v>
       </c>
       <c r="E24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="F24" t="s">
         <v>408</v>
       </c>
       <c r="G24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="H24" t="s">
         <v>528</v>
       </c>
       <c r="I24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="J24" t="s">
         <v>648</v>
       </c>
       <c r="K24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="L24" t="s">
         <v>768</v>
       </c>
       <c r="M24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="N24" t="s">
         <v>288</v>
       </c>
       <c r="O24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -4751,43 +4755,43 @@
         <v>49</v>
       </c>
       <c r="C25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="D25" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="F25" t="s">
         <v>409</v>
       </c>
       <c r="G25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="H25" t="s">
         <v>529</v>
       </c>
       <c r="I25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="J25" t="s">
         <v>649</v>
       </c>
       <c r="K25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="L25" t="s">
         <v>769</v>
       </c>
       <c r="M25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="N25" t="s">
         <v>289</v>
       </c>
       <c r="O25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -4795,43 +4799,43 @@
         <v>50</v>
       </c>
       <c r="C26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="D26" t="s">
         <v>170</v>
       </c>
       <c r="E26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="F26" t="s">
         <v>410</v>
       </c>
       <c r="G26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="H26" t="s">
         <v>530</v>
       </c>
       <c r="I26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="J26" t="s">
         <v>650</v>
       </c>
       <c r="K26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="L26" t="s">
         <v>770</v>
       </c>
       <c r="M26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="N26" t="s">
         <v>290</v>
       </c>
       <c r="O26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -4839,43 +4843,43 @@
         <v>51</v>
       </c>
       <c r="C27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="D27" t="s">
         <v>171</v>
       </c>
       <c r="E27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="F27" t="s">
         <v>411</v>
       </c>
       <c r="G27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="H27" t="s">
         <v>531</v>
       </c>
       <c r="I27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="J27" t="s">
         <v>651</v>
       </c>
       <c r="K27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="L27" t="s">
         <v>771</v>
       </c>
       <c r="M27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="N27" t="s">
         <v>291</v>
       </c>
       <c r="O27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
     </row>
     <row r="28" spans="2:15">
@@ -4883,43 +4887,43 @@
         <v>52</v>
       </c>
       <c r="C28" s="6">
-        <v>76383</v>
+        <v>76519</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
       </c>
       <c r="E28" s="6">
-        <v>76382</v>
+        <v>76519</v>
       </c>
       <c r="F28" t="s">
         <v>412</v>
       </c>
       <c r="G28" s="6">
-        <v>76382</v>
+        <v>76519</v>
       </c>
       <c r="H28" t="s">
         <v>532</v>
       </c>
       <c r="I28" s="6">
-        <v>76382</v>
+        <v>76519</v>
       </c>
       <c r="J28" t="s">
         <v>652</v>
       </c>
       <c r="K28" s="6">
-        <v>76383</v>
+        <v>76519</v>
       </c>
       <c r="L28" t="s">
         <v>772</v>
       </c>
       <c r="M28" s="6">
-        <v>76383</v>
+        <v>76519</v>
       </c>
       <c r="N28" t="s">
         <v>292</v>
       </c>
       <c r="O28" s="6">
-        <v>76382</v>
+        <v>76519</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -4927,43 +4931,43 @@
         <v>53</v>
       </c>
       <c r="C29" s="6">
-        <v>239281</v>
+        <v>239122</v>
       </c>
       <c r="D29" t="s">
         <v>173</v>
       </c>
       <c r="E29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
       <c r="F29" t="s">
         <v>413</v>
       </c>
       <c r="G29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
       <c r="H29" t="s">
         <v>533</v>
       </c>
       <c r="I29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
       <c r="J29" t="s">
         <v>653</v>
       </c>
       <c r="K29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
       <c r="L29" t="s">
         <v>773</v>
       </c>
       <c r="M29" s="6">
-        <v>239275</v>
+        <v>239123</v>
       </c>
       <c r="N29" t="s">
         <v>293</v>
       </c>
       <c r="O29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -4971,43 +4975,43 @@
         <v>54</v>
       </c>
       <c r="C30" s="6">
-        <v>501557</v>
+        <v>510249</v>
       </c>
       <c r="D30" t="s">
         <v>174</v>
       </c>
       <c r="E30" s="6">
-        <v>501557</v>
+        <v>510263</v>
       </c>
       <c r="F30" t="s">
         <v>414</v>
       </c>
       <c r="G30" s="6">
-        <v>501557</v>
+        <v>510267</v>
       </c>
       <c r="H30" t="s">
         <v>534</v>
       </c>
       <c r="I30" s="6">
-        <v>501557</v>
+        <v>510267</v>
       </c>
       <c r="J30" t="s">
         <v>654</v>
       </c>
       <c r="K30" s="6">
-        <v>501557</v>
+        <v>510267</v>
       </c>
       <c r="L30" t="s">
         <v>774</v>
       </c>
       <c r="M30" s="6">
-        <v>501556</v>
+        <v>510267</v>
       </c>
       <c r="N30" t="s">
         <v>294</v>
       </c>
       <c r="O30" s="6">
-        <v>501557</v>
+        <v>510263</v>
       </c>
     </row>
     <row r="31" spans="2:15">
@@ -5059,43 +5063,43 @@
         <v>56</v>
       </c>
       <c r="C32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="D32" t="s">
         <v>176</v>
       </c>
       <c r="E32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="F32" t="s">
         <v>416</v>
       </c>
       <c r="G32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="H32" t="s">
         <v>536</v>
       </c>
       <c r="I32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="J32" t="s">
         <v>656</v>
       </c>
       <c r="K32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="L32" t="s">
         <v>776</v>
       </c>
       <c r="M32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="N32" t="s">
         <v>296</v>
       </c>
       <c r="O32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
     </row>
     <row r="33" spans="2:15">
@@ -5121,13 +5125,13 @@
         <v>537</v>
       </c>
       <c r="I33" s="6">
-        <v>247105</v>
+        <v>247126</v>
       </c>
       <c r="J33" t="s">
         <v>657</v>
       </c>
       <c r="K33" s="6">
-        <v>247125</v>
+        <v>247126</v>
       </c>
       <c r="L33" t="s">
         <v>777</v>
@@ -5139,7 +5143,7 @@
         <v>297</v>
       </c>
       <c r="O33" s="6">
-        <v>247110</v>
+        <v>247126</v>
       </c>
     </row>
     <row r="34" spans="2:15">
@@ -5191,43 +5195,43 @@
         <v>59</v>
       </c>
       <c r="C35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
       <c r="D35" t="s">
         <v>179</v>
       </c>
       <c r="E35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
       <c r="F35" t="s">
         <v>419</v>
       </c>
       <c r="G35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
       <c r="H35" t="s">
         <v>539</v>
       </c>
       <c r="I35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
       <c r="J35" t="s">
         <v>659</v>
       </c>
       <c r="K35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
       <c r="L35" t="s">
         <v>779</v>
       </c>
       <c r="M35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
       <c r="N35" t="s">
         <v>299</v>
       </c>
       <c r="O35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
     </row>
     <row r="36" spans="2:15">
@@ -5235,43 +5239,43 @@
         <v>60</v>
       </c>
       <c r="C36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="D36" t="s">
         <v>180</v>
       </c>
       <c r="E36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="F36" t="s">
         <v>420</v>
       </c>
       <c r="G36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="H36" t="s">
         <v>540</v>
       </c>
       <c r="I36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="J36" t="s">
         <v>660</v>
       </c>
       <c r="K36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="L36" t="s">
         <v>780</v>
       </c>
       <c r="M36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="N36" t="s">
         <v>300</v>
       </c>
       <c r="O36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
     </row>
     <row r="37" spans="2:15">
@@ -5279,43 +5283,43 @@
         <v>61</v>
       </c>
       <c r="C37" s="6">
-        <v>252480</v>
+        <v>252494</v>
       </c>
       <c r="D37" t="s">
         <v>181</v>
       </c>
       <c r="E37" s="6">
-        <v>252480</v>
+        <v>252494</v>
       </c>
       <c r="F37" t="s">
         <v>421</v>
       </c>
       <c r="G37" s="6">
-        <v>252480</v>
+        <v>252495</v>
       </c>
       <c r="H37" t="s">
         <v>541</v>
       </c>
       <c r="I37" s="6">
-        <v>252480</v>
+        <v>252495</v>
       </c>
       <c r="J37" t="s">
         <v>661</v>
       </c>
       <c r="K37" s="6">
-        <v>252480</v>
+        <v>252494</v>
       </c>
       <c r="L37" t="s">
         <v>781</v>
       </c>
       <c r="M37" s="6">
-        <v>252480</v>
+        <v>252494</v>
       </c>
       <c r="N37" t="s">
         <v>301</v>
       </c>
       <c r="O37" s="6">
-        <v>252480</v>
+        <v>252494</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -5323,43 +5327,43 @@
         <v>62</v>
       </c>
       <c r="C38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="D38" t="s">
         <v>182</v>
       </c>
       <c r="E38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="F38" t="s">
         <v>422</v>
       </c>
       <c r="G38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="H38" t="s">
         <v>542</v>
       </c>
       <c r="I38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="J38" t="s">
         <v>662</v>
       </c>
       <c r="K38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="L38" t="s">
         <v>782</v>
       </c>
       <c r="M38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="N38" t="s">
         <v>302</v>
       </c>
       <c r="O38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
     </row>
     <row r="39" spans="2:15">
@@ -5411,43 +5415,43 @@
         <v>64</v>
       </c>
       <c r="C40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="D40" t="s">
         <v>184</v>
       </c>
       <c r="E40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="F40" t="s">
         <v>424</v>
       </c>
       <c r="G40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="H40" t="s">
         <v>544</v>
       </c>
       <c r="I40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="J40" t="s">
         <v>664</v>
       </c>
       <c r="K40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="L40" t="s">
         <v>784</v>
       </c>
       <c r="M40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="N40" t="s">
         <v>304</v>
       </c>
       <c r="O40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
     </row>
     <row r="41" spans="2:15">
@@ -5543,43 +5547,43 @@
         <v>67</v>
       </c>
       <c r="C43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="D43" t="s">
         <v>187</v>
       </c>
       <c r="E43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="F43" t="s">
         <v>427</v>
       </c>
       <c r="G43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="H43" t="s">
         <v>547</v>
       </c>
       <c r="I43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="J43" t="s">
         <v>667</v>
       </c>
       <c r="K43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="L43" t="s">
         <v>787</v>
       </c>
       <c r="M43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="N43" t="s">
         <v>307</v>
       </c>
       <c r="O43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
     </row>
     <row r="44" spans="2:15">
@@ -5631,43 +5635,43 @@
         <v>69</v>
       </c>
       <c r="C45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="D45" t="s">
         <v>189</v>
       </c>
       <c r="E45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="F45" t="s">
         <v>429</v>
       </c>
       <c r="G45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="H45" t="s">
         <v>549</v>
       </c>
       <c r="I45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="J45" t="s">
         <v>669</v>
       </c>
       <c r="K45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="L45" t="s">
         <v>789</v>
       </c>
       <c r="M45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="N45" t="s">
         <v>309</v>
       </c>
       <c r="O45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
     </row>
     <row r="46" spans="2:15">
@@ -5807,43 +5811,43 @@
         <v>73</v>
       </c>
       <c r="C49" s="6">
-        <v>198784</v>
+        <v>198787</v>
       </c>
       <c r="D49" t="s">
         <v>193</v>
       </c>
       <c r="E49" s="6">
-        <v>198784</v>
+        <v>198787</v>
       </c>
       <c r="F49" t="s">
         <v>433</v>
       </c>
       <c r="G49" s="6">
-        <v>198784</v>
+        <v>198787</v>
       </c>
       <c r="H49" t="s">
         <v>553</v>
       </c>
       <c r="I49" s="6">
-        <v>197823</v>
+        <v>197743</v>
       </c>
       <c r="J49" t="s">
         <v>673</v>
       </c>
       <c r="K49" s="6">
-        <v>198784</v>
+        <v>198787</v>
       </c>
       <c r="L49" t="s">
         <v>793</v>
       </c>
       <c r="M49" s="6">
-        <v>198784</v>
+        <v>198787</v>
       </c>
       <c r="N49" t="s">
         <v>313</v>
       </c>
       <c r="O49" s="6">
-        <v>198784</v>
+        <v>198787</v>
       </c>
     </row>
     <row r="50" spans="2:15">
@@ -5851,43 +5855,43 @@
         <v>74</v>
       </c>
       <c r="C50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="D50" t="s">
         <v>194</v>
       </c>
       <c r="E50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="F50" t="s">
         <v>434</v>
       </c>
       <c r="G50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="H50" t="s">
         <v>554</v>
       </c>
       <c r="I50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="J50" t="s">
         <v>674</v>
       </c>
       <c r="K50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="L50" t="s">
         <v>794</v>
       </c>
       <c r="M50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="N50" t="s">
         <v>314</v>
       </c>
       <c r="O50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="51" spans="2:15">
@@ -5895,43 +5899,43 @@
         <v>75</v>
       </c>
       <c r="C51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="D51" t="s">
         <v>195</v>
       </c>
       <c r="E51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="F51" t="s">
         <v>435</v>
       </c>
       <c r="G51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="H51" t="s">
         <v>555</v>
       </c>
       <c r="I51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="J51" t="s">
         <v>675</v>
       </c>
       <c r="K51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="L51" t="s">
         <v>795</v>
       </c>
       <c r="M51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="N51" t="s">
         <v>315</v>
       </c>
       <c r="O51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
     </row>
     <row r="52" spans="2:15">
@@ -6071,43 +6075,43 @@
         <v>79</v>
       </c>
       <c r="C55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="D55" t="s">
         <v>199</v>
       </c>
       <c r="E55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="F55" t="s">
         <v>439</v>
       </c>
       <c r="G55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="H55" t="s">
         <v>559</v>
       </c>
       <c r="I55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="J55" t="s">
         <v>679</v>
       </c>
       <c r="K55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="L55" t="s">
         <v>799</v>
       </c>
       <c r="M55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="N55" t="s">
         <v>319</v>
       </c>
       <c r="O55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
     </row>
     <row r="56" spans="2:15">
@@ -6203,43 +6207,43 @@
         <v>82</v>
       </c>
       <c r="C58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="D58" t="s">
         <v>202</v>
       </c>
       <c r="E58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="F58" t="s">
         <v>442</v>
       </c>
       <c r="G58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="H58" t="s">
         <v>562</v>
       </c>
       <c r="I58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="J58" t="s">
         <v>682</v>
       </c>
       <c r="K58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="L58" t="s">
         <v>802</v>
       </c>
       <c r="M58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="N58" t="s">
         <v>322</v>
       </c>
       <c r="O58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
     </row>
     <row r="59" spans="2:15">
@@ -6247,43 +6251,43 @@
         <v>83</v>
       </c>
       <c r="C59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="D59" t="s">
         <v>203</v>
       </c>
       <c r="E59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="F59" t="s">
         <v>443</v>
       </c>
       <c r="G59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="H59" t="s">
         <v>563</v>
       </c>
       <c r="I59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="J59" t="s">
         <v>683</v>
       </c>
       <c r="K59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="L59" t="s">
         <v>803</v>
       </c>
       <c r="M59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="N59" t="s">
         <v>323</v>
       </c>
       <c r="O59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
     </row>
     <row r="60" spans="2:15">
@@ -6291,43 +6295,43 @@
         <v>84</v>
       </c>
       <c r="C60" s="6">
-        <v>85817</v>
+        <v>85599</v>
       </c>
       <c r="D60" t="s">
         <v>204</v>
       </c>
       <c r="E60" s="6">
-        <v>85721</v>
+        <v>85599</v>
       </c>
       <c r="F60" t="s">
         <v>444</v>
       </c>
       <c r="G60" s="6">
-        <v>85816</v>
+        <v>85560</v>
       </c>
       <c r="H60" t="s">
         <v>564</v>
       </c>
       <c r="I60" s="6">
-        <v>85705</v>
+        <v>85576</v>
       </c>
       <c r="J60" t="s">
         <v>684</v>
       </c>
       <c r="K60" s="6">
-        <v>85744</v>
+        <v>85599</v>
       </c>
       <c r="L60" t="s">
         <v>804</v>
       </c>
       <c r="M60" s="6">
-        <v>85817</v>
+        <v>85488</v>
       </c>
       <c r="N60" t="s">
         <v>324</v>
       </c>
       <c r="O60" s="6">
-        <v>85817</v>
+        <v>85599</v>
       </c>
     </row>
     <row r="61" spans="2:15">
@@ -6335,43 +6339,43 @@
         <v>85</v>
       </c>
       <c r="C61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="D61" t="s">
         <v>205</v>
       </c>
       <c r="E61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="F61" t="s">
         <v>445</v>
       </c>
       <c r="G61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="H61" t="s">
         <v>565</v>
       </c>
       <c r="I61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="J61" t="s">
         <v>685</v>
       </c>
       <c r="K61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="L61" t="s">
         <v>805</v>
       </c>
       <c r="M61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="N61" t="s">
         <v>325</v>
       </c>
       <c r="O61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="62" spans="2:15">
@@ -6379,43 +6383,43 @@
         <v>86</v>
       </c>
       <c r="C62" s="6">
-        <v>187007</v>
+        <v>187111</v>
       </c>
       <c r="D62" t="s">
         <v>206</v>
       </c>
       <c r="E62" s="6">
-        <v>187007</v>
+        <v>187111</v>
       </c>
       <c r="F62" t="s">
         <v>446</v>
       </c>
       <c r="G62" s="6">
-        <v>187007</v>
+        <v>187111</v>
       </c>
       <c r="H62" t="s">
         <v>566</v>
       </c>
       <c r="I62" s="6">
-        <v>186570</v>
+        <v>186523</v>
       </c>
       <c r="J62" t="s">
         <v>686</v>
       </c>
       <c r="K62" s="6">
-        <v>187007</v>
+        <v>187111</v>
       </c>
       <c r="L62" t="s">
         <v>806</v>
       </c>
       <c r="M62" s="6">
-        <v>187007</v>
+        <v>187111</v>
       </c>
       <c r="N62" t="s">
         <v>326</v>
       </c>
       <c r="O62" s="6">
-        <v>187007</v>
+        <v>187111</v>
       </c>
     </row>
     <row r="63" spans="2:15">
@@ -6423,43 +6427,43 @@
         <v>87</v>
       </c>
       <c r="C63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="D63" t="s">
         <v>207</v>
       </c>
       <c r="E63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="F63" t="s">
         <v>447</v>
       </c>
       <c r="G63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="H63" t="s">
         <v>567</v>
       </c>
       <c r="I63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="J63" t="s">
         <v>687</v>
       </c>
       <c r="K63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="L63" t="s">
         <v>807</v>
       </c>
       <c r="M63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="N63" t="s">
         <v>327</v>
       </c>
       <c r="O63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
     </row>
     <row r="64" spans="2:15">
@@ -6511,43 +6515,43 @@
         <v>89</v>
       </c>
       <c r="C65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="D65" t="s">
         <v>209</v>
       </c>
       <c r="E65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="F65" t="s">
         <v>449</v>
       </c>
       <c r="G65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="H65" t="s">
         <v>569</v>
       </c>
       <c r="I65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="J65" t="s">
         <v>689</v>
       </c>
       <c r="K65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="L65" t="s">
         <v>809</v>
       </c>
       <c r="M65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="N65" t="s">
         <v>329</v>
       </c>
       <c r="O65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
     </row>
     <row r="66" spans="2:15">
@@ -6555,43 +6559,43 @@
         <v>90</v>
       </c>
       <c r="C66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="D66" t="s">
         <v>210</v>
       </c>
       <c r="E66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="F66" t="s">
         <v>450</v>
       </c>
       <c r="G66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="H66" t="s">
         <v>570</v>
       </c>
       <c r="I66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="J66" t="s">
         <v>690</v>
       </c>
       <c r="K66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="L66" t="s">
         <v>810</v>
       </c>
       <c r="M66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="N66" t="s">
         <v>330</v>
       </c>
       <c r="O66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="67" spans="2:15">
@@ -6599,43 +6603,43 @@
         <v>91</v>
       </c>
       <c r="C67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="D67" t="s">
         <v>211</v>
       </c>
       <c r="E67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="F67" t="s">
         <v>451</v>
       </c>
       <c r="G67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="H67" t="s">
         <v>571</v>
       </c>
       <c r="I67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="J67" t="s">
         <v>691</v>
       </c>
       <c r="K67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="L67" t="s">
         <v>811</v>
       </c>
       <c r="M67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="N67" t="s">
         <v>331</v>
       </c>
       <c r="O67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
     </row>
     <row r="68" spans="2:15">
@@ -6643,43 +6647,43 @@
         <v>92</v>
       </c>
       <c r="C68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="D68" t="s">
         <v>212</v>
       </c>
       <c r="E68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="F68" t="s">
         <v>452</v>
       </c>
       <c r="G68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="H68" t="s">
         <v>572</v>
       </c>
       <c r="I68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="J68" t="s">
         <v>692</v>
       </c>
       <c r="K68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="L68" t="s">
         <v>812</v>
       </c>
       <c r="M68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="N68" t="s">
         <v>332</v>
       </c>
       <c r="O68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
     </row>
     <row r="69" spans="2:15">
@@ -6687,43 +6691,43 @@
         <v>93</v>
       </c>
       <c r="C69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="D69" t="s">
         <v>213</v>
       </c>
       <c r="E69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="F69" t="s">
         <v>453</v>
       </c>
       <c r="G69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="H69" t="s">
         <v>573</v>
       </c>
       <c r="I69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="J69" t="s">
         <v>693</v>
       </c>
       <c r="K69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="L69" t="s">
         <v>813</v>
       </c>
       <c r="M69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="N69" t="s">
         <v>333</v>
       </c>
       <c r="O69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
     </row>
     <row r="70" spans="2:15">
@@ -6731,43 +6735,43 @@
         <v>94</v>
       </c>
       <c r="C70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="D70" t="s">
         <v>214</v>
       </c>
       <c r="E70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="F70" t="s">
         <v>454</v>
       </c>
       <c r="G70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="H70" t="s">
         <v>574</v>
       </c>
       <c r="I70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="J70" t="s">
         <v>694</v>
       </c>
       <c r="K70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="L70" t="s">
         <v>814</v>
       </c>
       <c r="M70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="N70" t="s">
         <v>334</v>
       </c>
       <c r="O70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
     </row>
     <row r="71" spans="2:15">
@@ -6775,43 +6779,43 @@
         <v>95</v>
       </c>
       <c r="C71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="D71" t="s">
         <v>215</v>
       </c>
       <c r="E71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="F71" t="s">
         <v>455</v>
       </c>
       <c r="G71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="H71" t="s">
         <v>575</v>
       </c>
       <c r="I71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="J71" t="s">
         <v>695</v>
       </c>
       <c r="K71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="L71" t="s">
         <v>815</v>
       </c>
       <c r="M71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="N71" t="s">
         <v>335</v>
       </c>
       <c r="O71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
     </row>
     <row r="72" spans="2:15">
@@ -6819,43 +6823,43 @@
         <v>96</v>
       </c>
       <c r="C72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="D72" t="s">
         <v>216</v>
       </c>
       <c r="E72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="F72" t="s">
         <v>456</v>
       </c>
       <c r="G72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="H72" t="s">
         <v>576</v>
       </c>
       <c r="I72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="J72" t="s">
         <v>696</v>
       </c>
       <c r="K72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="L72" t="s">
         <v>816</v>
       </c>
       <c r="M72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="N72" t="s">
         <v>336</v>
       </c>
       <c r="O72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
     </row>
     <row r="73" spans="2:15">
@@ -6907,43 +6911,43 @@
         <v>98</v>
       </c>
       <c r="C74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="D74" t="s">
         <v>218</v>
       </c>
       <c r="E74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="F74" t="s">
         <v>458</v>
       </c>
       <c r="G74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="H74" t="s">
         <v>578</v>
       </c>
       <c r="I74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="J74" t="s">
         <v>698</v>
       </c>
       <c r="K74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="L74" t="s">
         <v>818</v>
       </c>
       <c r="M74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="N74" t="s">
         <v>338</v>
       </c>
       <c r="O74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
     </row>
     <row r="75" spans="2:15">
@@ -6951,43 +6955,43 @@
         <v>99</v>
       </c>
       <c r="C75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
       </c>
       <c r="E75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
       <c r="F75" t="s">
         <v>459</v>
       </c>
       <c r="G75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
       <c r="H75" t="s">
         <v>579</v>
       </c>
       <c r="I75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
       <c r="J75" t="s">
         <v>699</v>
       </c>
       <c r="K75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
       <c r="L75" t="s">
         <v>819</v>
       </c>
       <c r="M75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
       <c r="N75" t="s">
         <v>339</v>
       </c>
       <c r="O75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
     </row>
     <row r="76" spans="2:15">
@@ -6995,43 +6999,43 @@
         <v>100</v>
       </c>
       <c r="C76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="D76" t="s">
         <v>220</v>
       </c>
       <c r="E76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="F76" t="s">
         <v>460</v>
       </c>
       <c r="G76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="H76" t="s">
         <v>580</v>
       </c>
       <c r="I76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="J76" t="s">
         <v>700</v>
       </c>
       <c r="K76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="L76" t="s">
         <v>820</v>
       </c>
       <c r="M76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="N76" t="s">
         <v>340</v>
       </c>
       <c r="O76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
     </row>
     <row r="77" spans="2:15">
@@ -7039,43 +7043,43 @@
         <v>101</v>
       </c>
       <c r="C77" s="6">
-        <v>45696</v>
+        <v>45045</v>
       </c>
       <c r="D77" t="s">
         <v>221</v>
       </c>
       <c r="E77" s="6">
-        <v>45696</v>
+        <v>45045</v>
       </c>
       <c r="F77" t="s">
         <v>461</v>
       </c>
       <c r="G77" s="6">
-        <v>45696</v>
+        <v>45045</v>
       </c>
       <c r="H77" t="s">
         <v>581</v>
       </c>
       <c r="I77" s="6">
-        <v>46476</v>
+        <v>45456</v>
       </c>
       <c r="J77" t="s">
         <v>701</v>
       </c>
       <c r="K77" s="6">
-        <v>45696</v>
+        <v>45045</v>
       </c>
       <c r="L77" t="s">
         <v>821</v>
       </c>
       <c r="M77" s="6">
-        <v>45696</v>
+        <v>45045</v>
       </c>
       <c r="N77" t="s">
         <v>341</v>
       </c>
       <c r="O77" s="6">
-        <v>45696</v>
+        <v>45045</v>
       </c>
     </row>
     <row r="78" spans="2:15">
@@ -7083,43 +7087,43 @@
         <v>102</v>
       </c>
       <c r="C78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="D78" t="s">
         <v>222</v>
       </c>
       <c r="E78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="F78" t="s">
         <v>462</v>
       </c>
       <c r="G78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="H78" t="s">
         <v>582</v>
       </c>
       <c r="I78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="J78" t="s">
         <v>702</v>
       </c>
       <c r="K78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="L78" t="s">
         <v>822</v>
       </c>
       <c r="M78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="N78" t="s">
         <v>342</v>
       </c>
       <c r="O78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
     </row>
     <row r="79" spans="2:15">
@@ -7127,43 +7131,43 @@
         <v>103</v>
       </c>
       <c r="C79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="D79" t="s">
         <v>223</v>
       </c>
       <c r="E79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="F79" t="s">
         <v>463</v>
       </c>
       <c r="G79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="H79" t="s">
         <v>583</v>
       </c>
       <c r="I79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="J79" t="s">
         <v>703</v>
       </c>
       <c r="K79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="L79" t="s">
         <v>823</v>
       </c>
       <c r="M79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="N79" t="s">
         <v>343</v>
       </c>
       <c r="O79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
     </row>
     <row r="80" spans="2:15">
@@ -7171,43 +7175,43 @@
         <v>104</v>
       </c>
       <c r="C80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="D80" t="s">
         <v>224</v>
       </c>
       <c r="E80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="F80" t="s">
         <v>464</v>
       </c>
       <c r="G80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="H80" t="s">
         <v>584</v>
       </c>
       <c r="I80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="J80" t="s">
         <v>704</v>
       </c>
       <c r="K80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="L80" t="s">
         <v>824</v>
       </c>
       <c r="M80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="N80" t="s">
         <v>344</v>
       </c>
       <c r="O80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
     </row>
     <row r="81" spans="2:15">
@@ -7215,43 +7219,43 @@
         <v>105</v>
       </c>
       <c r="C81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="D81" t="s">
         <v>225</v>
       </c>
       <c r="E81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="F81" t="s">
         <v>465</v>
       </c>
       <c r="G81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="H81" t="s">
         <v>585</v>
       </c>
       <c r="I81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="J81" t="s">
         <v>705</v>
       </c>
       <c r="K81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="L81" t="s">
         <v>825</v>
       </c>
       <c r="M81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="N81" t="s">
         <v>345</v>
       </c>
       <c r="O81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
     </row>
     <row r="82" spans="2:15">
@@ -7391,43 +7395,43 @@
         <v>109</v>
       </c>
       <c r="C85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="D85" t="s">
         <v>229</v>
       </c>
       <c r="E85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="F85" t="s">
         <v>469</v>
       </c>
       <c r="G85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="H85" t="s">
         <v>589</v>
       </c>
       <c r="I85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="J85" t="s">
         <v>709</v>
       </c>
       <c r="K85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="L85" t="s">
         <v>829</v>
       </c>
       <c r="M85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="N85" t="s">
         <v>349</v>
       </c>
       <c r="O85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
     </row>
     <row r="86" spans="2:15">
@@ -7567,43 +7571,43 @@
         <v>113</v>
       </c>
       <c r="C89" s="6">
-        <v>841747</v>
+        <v>841790</v>
       </c>
       <c r="D89" t="s">
         <v>233</v>
       </c>
       <c r="E89" s="6">
-        <v>841747</v>
+        <v>841790</v>
       </c>
       <c r="F89" t="s">
         <v>473</v>
       </c>
       <c r="G89" s="6">
-        <v>841747</v>
+        <v>841790</v>
       </c>
       <c r="H89" t="s">
         <v>593</v>
       </c>
       <c r="I89" s="6">
-        <v>839433</v>
+        <v>839589</v>
       </c>
       <c r="J89" t="s">
         <v>713</v>
       </c>
       <c r="K89" s="6">
-        <v>841747</v>
+        <v>841790</v>
       </c>
       <c r="L89" t="s">
         <v>833</v>
       </c>
       <c r="M89" s="6">
-        <v>841747</v>
+        <v>841790</v>
       </c>
       <c r="N89" t="s">
         <v>353</v>
       </c>
       <c r="O89" s="6">
-        <v>841747</v>
+        <v>841790</v>
       </c>
     </row>
     <row r="90" spans="2:15">
@@ -7611,43 +7615,43 @@
         <v>114</v>
       </c>
       <c r="C90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="D90" t="s">
         <v>234</v>
       </c>
       <c r="E90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="F90" t="s">
         <v>474</v>
       </c>
       <c r="G90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="H90" t="s">
         <v>594</v>
       </c>
       <c r="I90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="J90" t="s">
         <v>714</v>
       </c>
       <c r="K90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="L90" t="s">
         <v>834</v>
       </c>
       <c r="M90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="N90" t="s">
         <v>354</v>
       </c>
       <c r="O90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
     </row>
     <row r="91" spans="2:15">
@@ -7655,43 +7659,43 @@
         <v>115</v>
       </c>
       <c r="C91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="D91" t="s">
         <v>235</v>
       </c>
       <c r="E91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="F91" t="s">
         <v>475</v>
       </c>
       <c r="G91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="H91" t="s">
         <v>595</v>
       </c>
       <c r="I91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="J91" t="s">
         <v>715</v>
       </c>
       <c r="K91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="L91" t="s">
         <v>835</v>
       </c>
       <c r="M91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="N91" t="s">
         <v>355</v>
       </c>
       <c r="O91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
     </row>
     <row r="92" spans="2:15">
@@ -7831,43 +7835,43 @@
         <v>119</v>
       </c>
       <c r="C95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="D95" t="s">
         <v>239</v>
       </c>
       <c r="E95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="F95" t="s">
         <v>479</v>
       </c>
       <c r="G95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="H95" t="s">
         <v>599</v>
       </c>
       <c r="I95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="J95" t="s">
         <v>719</v>
       </c>
       <c r="K95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="L95" t="s">
         <v>839</v>
       </c>
       <c r="M95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="N95" t="s">
         <v>359</v>
       </c>
       <c r="O95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
     </row>
     <row r="96" spans="2:15">
@@ -7875,43 +7879,43 @@
         <v>120</v>
       </c>
       <c r="C96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="D96" t="s">
         <v>240</v>
       </c>
       <c r="E96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="F96" t="s">
         <v>480</v>
       </c>
       <c r="G96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="H96" t="s">
         <v>600</v>
       </c>
       <c r="I96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="J96" t="s">
         <v>720</v>
       </c>
       <c r="K96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="L96" t="s">
         <v>840</v>
       </c>
       <c r="M96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="N96" t="s">
         <v>360</v>
       </c>
       <c r="O96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
     </row>
     <row r="97" spans="2:15">
@@ -7963,43 +7967,43 @@
         <v>122</v>
       </c>
       <c r="C98" s="6">
-        <v>996811</v>
+        <v>998555</v>
       </c>
       <c r="D98" t="s">
         <v>242</v>
       </c>
       <c r="E98" s="6">
-        <v>996811</v>
+        <v>998555</v>
       </c>
       <c r="F98" t="s">
         <v>482</v>
       </c>
       <c r="G98" s="6">
-        <v>996811</v>
+        <v>998555</v>
       </c>
       <c r="H98" t="s">
         <v>602</v>
       </c>
       <c r="I98" s="6">
-        <v>985889</v>
+        <v>987077</v>
       </c>
       <c r="J98" t="s">
         <v>722</v>
       </c>
       <c r="K98" s="6">
-        <v>996811</v>
+        <v>998555</v>
       </c>
       <c r="L98" t="s">
         <v>842</v>
       </c>
       <c r="M98" s="6">
-        <v>996811</v>
+        <v>998555</v>
       </c>
       <c r="N98" t="s">
         <v>362</v>
       </c>
       <c r="O98" s="6">
-        <v>996811</v>
+        <v>998555</v>
       </c>
     </row>
     <row r="99" spans="2:15">
@@ -8007,43 +8011,43 @@
         <v>123</v>
       </c>
       <c r="C99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="D99" t="s">
         <v>243</v>
       </c>
       <c r="E99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="F99" t="s">
         <v>483</v>
       </c>
       <c r="G99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="H99" t="s">
         <v>603</v>
       </c>
       <c r="I99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="J99" t="s">
         <v>723</v>
       </c>
       <c r="K99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="L99" t="s">
         <v>843</v>
       </c>
       <c r="M99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="N99" t="s">
         <v>363</v>
       </c>
       <c r="O99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
     </row>
     <row r="100" spans="2:15">
@@ -8051,43 +8055,43 @@
         <v>124</v>
       </c>
       <c r="C100" s="6">
-        <v>283798</v>
+        <v>281808</v>
       </c>
       <c r="D100" t="s">
         <v>244</v>
       </c>
       <c r="E100" s="6">
-        <v>283798</v>
+        <v>281808</v>
       </c>
       <c r="F100" t="s">
         <v>484</v>
       </c>
       <c r="G100" s="6">
-        <v>283798</v>
+        <v>281808</v>
       </c>
       <c r="H100" t="s">
         <v>604</v>
       </c>
       <c r="I100" s="6">
-        <v>282910</v>
+        <v>281042</v>
       </c>
       <c r="J100" t="s">
         <v>724</v>
       </c>
       <c r="K100" s="6">
-        <v>283798</v>
+        <v>281808</v>
       </c>
       <c r="L100" t="s">
         <v>844</v>
       </c>
       <c r="M100" s="6">
-        <v>283798</v>
+        <v>281808</v>
       </c>
       <c r="N100" t="s">
         <v>364</v>
       </c>
       <c r="O100" s="6">
-        <v>283798</v>
+        <v>281808</v>
       </c>
     </row>
     <row r="101" spans="2:15">
@@ -8095,43 +8099,43 @@
         <v>125</v>
       </c>
       <c r="C101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="D101" t="s">
         <v>245</v>
       </c>
       <c r="E101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="F101" t="s">
         <v>485</v>
       </c>
       <c r="G101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="H101" t="s">
         <v>605</v>
       </c>
       <c r="I101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="J101" t="s">
         <v>725</v>
       </c>
       <c r="K101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="L101" t="s">
         <v>845</v>
       </c>
       <c r="M101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="N101" t="s">
         <v>365</v>
       </c>
       <c r="O101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
     </row>
     <row r="102" spans="2:15">
@@ -8139,43 +8143,43 @@
         <v>126</v>
       </c>
       <c r="C102" s="6">
-        <v>705955</v>
+        <v>707135</v>
       </c>
       <c r="D102" t="s">
         <v>246</v>
       </c>
       <c r="E102" s="6">
-        <v>705955</v>
+        <v>707135</v>
       </c>
       <c r="F102" t="s">
         <v>486</v>
       </c>
       <c r="G102" s="6">
-        <v>705955</v>
+        <v>707135</v>
       </c>
       <c r="H102" t="s">
         <v>606</v>
       </c>
       <c r="I102" s="6">
-        <v>703882</v>
+        <v>703854</v>
       </c>
       <c r="J102" t="s">
         <v>726</v>
       </c>
       <c r="K102" s="6">
-        <v>705955</v>
+        <v>707135</v>
       </c>
       <c r="L102" t="s">
         <v>846</v>
       </c>
       <c r="M102" s="6">
-        <v>705955</v>
+        <v>707135</v>
       </c>
       <c r="N102" t="s">
         <v>366</v>
       </c>
       <c r="O102" s="6">
-        <v>705955</v>
+        <v>707135</v>
       </c>
     </row>
     <row r="103" spans="2:15">
@@ -8183,43 +8187,43 @@
         <v>127</v>
       </c>
       <c r="C103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="D103" t="s">
         <v>247</v>
       </c>
       <c r="E103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="F103" t="s">
         <v>487</v>
       </c>
       <c r="G103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="H103" t="s">
         <v>607</v>
       </c>
       <c r="I103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="J103" t="s">
         <v>727</v>
       </c>
       <c r="K103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="L103" t="s">
         <v>847</v>
       </c>
       <c r="M103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="N103" t="s">
         <v>367</v>
       </c>
       <c r="O103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
     </row>
     <row r="104" spans="2:15">
@@ -8227,43 +8231,43 @@
         <v>128</v>
       </c>
       <c r="C104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="D104" t="s">
         <v>248</v>
       </c>
       <c r="E104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="F104" t="s">
         <v>488</v>
       </c>
       <c r="G104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="H104" t="s">
         <v>608</v>
       </c>
       <c r="I104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="J104" t="s">
         <v>728</v>
       </c>
       <c r="K104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="L104" t="s">
         <v>848</v>
       </c>
       <c r="M104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="N104" t="s">
         <v>368</v>
       </c>
       <c r="O104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
     </row>
     <row r="105" spans="2:15">
@@ -8271,43 +8275,43 @@
         <v>129</v>
       </c>
       <c r="C105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="D105" t="s">
         <v>249</v>
       </c>
       <c r="E105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="F105" t="s">
         <v>489</v>
       </c>
       <c r="G105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="H105" t="s">
         <v>609</v>
       </c>
       <c r="I105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="J105" t="s">
         <v>729</v>
       </c>
       <c r="K105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="L105" t="s">
         <v>849</v>
       </c>
       <c r="M105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="N105" t="s">
         <v>369</v>
       </c>
       <c r="O105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
     </row>
     <row r="106" spans="2:15">
@@ -8315,43 +8319,43 @@
         <v>130</v>
       </c>
       <c r="C106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="D106" t="s">
         <v>250</v>
       </c>
       <c r="E106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="F106" t="s">
         <v>490</v>
       </c>
       <c r="G106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="H106" t="s">
         <v>610</v>
       </c>
       <c r="I106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="J106" t="s">
         <v>730</v>
       </c>
       <c r="K106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="L106" t="s">
         <v>850</v>
       </c>
       <c r="M106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="N106" t="s">
         <v>370</v>
       </c>
       <c r="O106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
     </row>
     <row r="107" spans="2:15">
@@ -8359,43 +8363,43 @@
         <v>131</v>
       </c>
       <c r="C107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="D107" t="s">
         <v>251</v>
       </c>
       <c r="E107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="F107" t="s">
         <v>491</v>
       </c>
       <c r="G107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="H107" t="s">
         <v>611</v>
       </c>
       <c r="I107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="J107" t="s">
         <v>731</v>
       </c>
       <c r="K107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="L107" t="s">
         <v>851</v>
       </c>
       <c r="M107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="N107" t="s">
         <v>371</v>
       </c>
       <c r="O107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
     </row>
     <row r="108" spans="2:15">
@@ -8403,43 +8407,43 @@
         <v>132</v>
       </c>
       <c r="C108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="D108" t="s">
         <v>252</v>
       </c>
       <c r="E108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="F108" t="s">
         <v>492</v>
       </c>
       <c r="G108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="H108" t="s">
         <v>612</v>
       </c>
       <c r="I108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="J108" t="s">
         <v>732</v>
       </c>
       <c r="K108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="L108" t="s">
         <v>852</v>
       </c>
       <c r="M108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="N108" t="s">
         <v>372</v>
       </c>
       <c r="O108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
     </row>
     <row r="109" spans="2:15">
@@ -8447,43 +8451,43 @@
         <v>133</v>
       </c>
       <c r="C109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="D109" t="s">
         <v>253</v>
       </c>
       <c r="E109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="F109" t="s">
         <v>493</v>
       </c>
       <c r="G109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="H109" t="s">
         <v>613</v>
       </c>
       <c r="I109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="J109" t="s">
         <v>733</v>
       </c>
       <c r="K109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="L109" t="s">
         <v>853</v>
       </c>
       <c r="M109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="N109" t="s">
         <v>373</v>
       </c>
       <c r="O109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
     </row>
     <row r="110" spans="2:15">
@@ -8491,43 +8495,43 @@
         <v>134</v>
       </c>
       <c r="C110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="D110" t="s">
         <v>254</v>
       </c>
       <c r="E110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="F110" t="s">
         <v>494</v>
       </c>
       <c r="G110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="H110" t="s">
         <v>614</v>
       </c>
       <c r="I110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="J110" t="s">
         <v>734</v>
       </c>
       <c r="K110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="L110" t="s">
         <v>854</v>
       </c>
       <c r="M110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="N110" t="s">
         <v>374</v>
       </c>
       <c r="O110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
     </row>
     <row r="111" spans="2:15">
@@ -8535,43 +8539,43 @@
         <v>135</v>
       </c>
       <c r="C111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="D111" t="s">
         <v>255</v>
       </c>
       <c r="E111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="F111" t="s">
         <v>495</v>
       </c>
       <c r="G111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="H111" t="s">
         <v>615</v>
       </c>
       <c r="I111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="J111" t="s">
         <v>735</v>
       </c>
       <c r="K111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="L111" t="s">
         <v>855</v>
       </c>
       <c r="M111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="N111" t="s">
         <v>375</v>
       </c>
       <c r="O111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
     </row>
     <row r="112" spans="2:15">
@@ -8579,43 +8583,43 @@
         <v>136</v>
       </c>
       <c r="C112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="D112" t="s">
         <v>256</v>
       </c>
       <c r="E112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="F112" t="s">
         <v>496</v>
       </c>
       <c r="G112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="H112" t="s">
         <v>616</v>
       </c>
       <c r="I112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="J112" t="s">
         <v>736</v>
       </c>
       <c r="K112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="L112" t="s">
         <v>856</v>
       </c>
       <c r="M112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="N112" t="s">
         <v>376</v>
       </c>
       <c r="O112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -8667,43 +8671,43 @@
         <v>138</v>
       </c>
       <c r="C114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="D114" t="s">
         <v>258</v>
       </c>
       <c r="E114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="F114" t="s">
         <v>498</v>
       </c>
       <c r="G114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="H114" t="s">
         <v>618</v>
       </c>
       <c r="I114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="J114" t="s">
         <v>738</v>
       </c>
       <c r="K114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="L114" t="s">
         <v>858</v>
       </c>
       <c r="M114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="N114" t="s">
         <v>378</v>
       </c>
       <c r="O114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -8711,43 +8715,43 @@
         <v>139</v>
       </c>
       <c r="C115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
       <c r="D115" t="s">
         <v>259</v>
       </c>
       <c r="E115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
       <c r="F115" t="s">
         <v>499</v>
       </c>
       <c r="G115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
       <c r="H115" t="s">
         <v>619</v>
       </c>
       <c r="I115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
       <c r="J115" t="s">
         <v>739</v>
       </c>
       <c r="K115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
       <c r="L115" t="s">
         <v>859</v>
       </c>
       <c r="M115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
       <c r="N115" t="s">
         <v>379</v>
       </c>
       <c r="O115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -8755,43 +8759,43 @@
         <v>140</v>
       </c>
       <c r="C116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="D116" t="s">
         <v>260</v>
       </c>
       <c r="E116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="F116" t="s">
         <v>500</v>
       </c>
       <c r="G116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="H116" t="s">
         <v>620</v>
       </c>
       <c r="I116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="J116" t="s">
         <v>740</v>
       </c>
       <c r="K116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="L116" t="s">
         <v>860</v>
       </c>
       <c r="M116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="N116" t="s">
         <v>380</v>
       </c>
       <c r="O116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -8799,43 +8803,43 @@
         <v>141</v>
       </c>
       <c r="C117" s="6">
-        <v>106673</v>
+        <v>106676</v>
       </c>
       <c r="D117" t="s">
         <v>261</v>
       </c>
       <c r="E117" s="6">
-        <v>106673</v>
+        <v>106676</v>
       </c>
       <c r="F117" t="s">
         <v>501</v>
       </c>
       <c r="G117" s="6">
-        <v>106673</v>
+        <v>106676</v>
       </c>
       <c r="H117" t="s">
         <v>621</v>
       </c>
       <c r="I117" s="6">
-        <v>108202</v>
+        <v>107848</v>
       </c>
       <c r="J117" t="s">
         <v>741</v>
       </c>
       <c r="K117" s="6">
-        <v>106673</v>
+        <v>106676</v>
       </c>
       <c r="L117" t="s">
         <v>861</v>
       </c>
       <c r="M117" s="6">
-        <v>106673</v>
+        <v>106676</v>
       </c>
       <c r="N117" t="s">
         <v>381</v>
       </c>
       <c r="O117" s="6">
-        <v>106673</v>
+        <v>106676</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -8843,43 +8847,43 @@
         <v>142</v>
       </c>
       <c r="C118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="D118" t="s">
         <v>262</v>
       </c>
       <c r="E118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="F118" t="s">
         <v>502</v>
       </c>
       <c r="G118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="H118" t="s">
         <v>622</v>
       </c>
       <c r="I118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="J118" t="s">
         <v>742</v>
       </c>
       <c r="K118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="L118" t="s">
         <v>862</v>
       </c>
       <c r="M118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="N118" t="s">
         <v>382</v>
       </c>
       <c r="O118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -8887,43 +8891,43 @@
         <v>143</v>
       </c>
       <c r="C119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="D119" t="s">
         <v>263</v>
       </c>
       <c r="E119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="F119" t="s">
         <v>503</v>
       </c>
       <c r="G119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="H119" t="s">
         <v>623</v>
       </c>
       <c r="I119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="J119" t="s">
         <v>743</v>
       </c>
       <c r="K119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="L119" t="s">
         <v>863</v>
       </c>
       <c r="M119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="N119" t="s">
         <v>383</v>
       </c>
       <c r="O119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -8931,43 +8935,43 @@
         <v>144</v>
       </c>
       <c r="C120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="D120" t="s">
         <v>264</v>
       </c>
       <c r="E120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="F120" t="s">
         <v>504</v>
       </c>
       <c r="G120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="H120" t="s">
         <v>624</v>
       </c>
       <c r="I120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="J120" t="s">
         <v>744</v>
       </c>
       <c r="K120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="L120" t="s">
         <v>864</v>
       </c>
       <c r="M120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="N120" t="s">
         <v>384</v>
       </c>
       <c r="O120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -9064,31 +9068,31 @@
       </c>
       <c r="C123" s="11">
         <f>AVERAGE(C3:C122)</f>
-        <v>254554.875</v>
+        <v>254446.92499999999</v>
       </c>
       <c r="E123" s="11">
         <f>AVERAGE(E3:E122)</f>
-        <v>254553.875</v>
+        <v>254450.2</v>
       </c>
       <c r="G123" s="11">
         <f>AVERAGE(G3:G122)</f>
-        <v>254554.85</v>
+        <v>254450.08333333334</v>
       </c>
       <c r="I123" s="11">
         <f>AVERAGE(I3:I122)</f>
-        <v>254469.74166666667</v>
+        <v>254322.79166666666</v>
       </c>
       <c r="K123" s="11">
         <f>AVERAGE(K3:K122)</f>
-        <v>254551.84166666667</v>
+        <v>254449.82500000001</v>
       </c>
       <c r="M123" s="11">
         <f>AVERAGE(M3:M122)</f>
-        <v>254552.69166666668</v>
+        <v>254447.76666666666</v>
       </c>
       <c r="O123" s="11">
         <f>AVERAGE(O3:O122)</f>
-        <v>254554.81666666668</v>
+        <v>254448.29166666666</v>
       </c>
     </row>
     <row r="124" spans="1:15" s="1" customFormat="1">
@@ -9097,31 +9101,31 @@
       </c>
       <c r="C124" s="5">
         <f>MEDIAN(C3:C122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="E124" s="5">
         <f>MEDIAN(E3:E122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="G124" s="5">
         <f>MEDIAN(G3:G122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="I124" s="5">
         <f>MEDIAN(I3:I122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="K124" s="5">
         <f>MEDIAN(K3:K122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="M124" s="5">
         <f>MEDIAN(M3:M122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="O124" s="5">
         <f>MEDIAN(O3:O122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
     </row>
     <row r="125" spans="1:15" s="2" customFormat="1">
@@ -9130,31 +9134,31 @@
       </c>
       <c r="C125" s="7">
         <f>SUM(C3:C122)</f>
-        <v>30546585</v>
+        <v>30533631</v>
       </c>
       <c r="E125" s="7">
         <f>SUM(E3:E122)</f>
-        <v>30546465</v>
+        <v>30534024</v>
       </c>
       <c r="G125" s="7">
         <f>SUM(G3:G122)</f>
-        <v>30546582</v>
+        <v>30534010</v>
       </c>
       <c r="I125" s="7">
         <f>SUM(I3:I122)</f>
-        <v>30536369</v>
+        <v>30518735</v>
       </c>
       <c r="K125" s="7">
         <f>SUM(K3:K122)</f>
-        <v>30546221</v>
+        <v>30533979</v>
       </c>
       <c r="M125" s="7">
         <f>SUM(M3:M122)</f>
-        <v>30546323</v>
+        <v>30533732</v>
       </c>
       <c r="O125" s="7">
         <f>SUM(O3:O122)</f>
-        <v>30546578</v>
+        <v>30533795</v>
       </c>
     </row>
     <row r="126" spans="1:15" s="1" customFormat="1">
@@ -9163,31 +9167,31 @@
       </c>
       <c r="C126" s="5">
         <f>AVERAGE(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="E126" s="5">
         <f>AVERAGE(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="G126" s="5">
         <f>AVERAGE(G3:G7,G12:G17,G21,G23:G26,G31,G34,G39:G47,G52:G57,G61,G63:G66,G71,G74,G79:G87,G92:G97,G101,G103:G106,G111,G114,G119:G122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="I126" s="5">
         <f>AVERAGE(I3:I7,I12:I17,I21,I23:I26,I31,I34,I39:I47,I52:I57,I61,I63:I66,I71,I74,I79:I87,I92:I97,I101,I103:I106,I111,I114,I119:I122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="K126" s="5">
         <f>AVERAGE(K3:K7,K12:K17,K21,K23:K26,K31,K34,K39:K47,K52:K57,K61,K63:K66,K71,K74,K79:K87,K92:K97,K101,K103:K106,K111,K114,K119:K122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="M126" s="5">
         <f>AVERAGE(M3:M7,M12:M17,M21,M23:M26,M31,M34,M39:M47,M52:M57,M61,M63:M66,M71,M74,M79:M87,M92:M97,M101,M103:M106,M111,M114,M119:M122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="O126" s="5">
         <f>AVERAGE(O3:O7,O12:O17,O21,O23:O26,O31,O34,O39:O47,O52:O57,O61,O63:O66,O71,O74,O79:O87,O92:O97,O101,O103:O106,O111,O114,O119:O122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
     </row>
     <row r="127" spans="1:15" s="1" customFormat="1">
@@ -9196,31 +9200,31 @@
       </c>
       <c r="C127" s="5">
         <f>MEDIAN(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="E127" s="5">
         <f>MEDIAN(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="G127" s="5">
         <f>MEDIAN(G3:G7,G12:G17,G21,G23:G26,G31,G34,G39:G47,G52:G57,G61,G63:G66,G71,G74,G79:G87,G92:G97,G101,G103:G106,G111,G114,G119:G122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="I127" s="5">
         <f>MEDIAN(I3:I7,I12:I17,I21,I23:I26,I31,I34,I39:I47,I52:I57,I61,I63:I66,I71,I74,I79:I87,I92:I97,I101,I103:I106,I111,I114,I119:I122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="K127" s="5">
         <f>MEDIAN(K3:K7,K12:K17,K21,K23:K26,K31,K34,K39:K47,K52:K57,K61,K63:K66,K71,K74,K79:K87,K92:K97,K101,K103:K106,K111,K114,K119:K122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="M127" s="5">
         <f>MEDIAN(M3:M7,M12:M17,M21,M23:M26,M31,M34,M39:M47,M52:M57,M61,M63:M66,M71,M74,M79:M87,M92:M97,M101,M103:M106,M111,M114,M119:M122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="O127" s="5">
         <f>MEDIAN(O3:O7,O12:O17,O21,O23:O26,O31,O34,O39:O47,O52:O57,O61,O63:O66,O71,O74,O79:O87,O92:O97,O101,O103:O106,O111,O114,O119:O122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
     </row>
     <row r="128" spans="1:15" s="2" customFormat="1">
@@ -9229,31 +9233,31 @@
       </c>
       <c r="C128" s="7">
         <f>SUM(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="E128" s="7">
         <f>SUM(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="G128" s="7">
         <f>SUM(G3:G7,G12:G17,G21,G23:G26,G31,G34,G39:G47,G52:G57,G61,G63:G66,G71,G74,G79:G87,G92:G97,G101,G103:G106,G111,G114,G119:G122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="I128" s="7">
         <f>SUM(I3:I7,I12:I17,I21,I23:I26,I31,I34,I39:I47,I52:I57,I61,I63:I66,I71,I74,I79:I87,I92:I97,I101,I103:I106,I111,I114,I119:I122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="K128" s="7">
         <f>SUM(K3:K7,K12:K17,K21,K23:K26,K31,K34,K39:K47,K52:K57,K61,K63:K66,K71,K74,K79:K87,K92:K97,K101,K103:K106,K111,K114,K119:K122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="M128" s="7">
         <f>SUM(M3:M7,M12:M17,M21,M23:M26,M31,M34,M39:M47,M52:M57,M61,M63:M66,M71,M74,M79:M87,M92:M97,M101,M103:M106,M111,M114,M119:M122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="O128" s="7">
         <f>SUM(O3:O7,O12:O17,O21,O23:O26,O31,O34,O39:O47,O52:O57,O61,O63:O66,O71,O74,O79:O87,O92:O97,O101,O103:O106,O111,O114,O119:O122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="1" customFormat="1">
@@ -9262,31 +9266,31 @@
       </c>
       <c r="C129" s="5">
         <f>AVERAGE(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>452999.38888888888</v>
+        <v>452707.0740740741</v>
       </c>
       <c r="E129" s="5">
         <f>AVERAGE(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>452997.16666666669</v>
+        <v>452714.35185185185</v>
       </c>
       <c r="G129" s="5">
         <f>AVERAGE(G8:G11,G18:G20,G22,G27:G30,G32:G33,G35:G38,G48:G51,G58:G60,G62,G67:G70,G72:G73,G75:G78,G88:G91,G98:G100,G102,G107:G110,G112:G113,G115:G118)</f>
-        <v>452999.33333333331</v>
+        <v>452714.09259259258</v>
       </c>
       <c r="I129" s="5">
         <f>AVERAGE(I8:I11,I18:I20,I22,I27:I30,I32:I33,I35:I38,I48:I51,I58:I60,I62,I67:I70,I72:I73,I75:I78,I88:I91,I98:I100,I102,I107:I110,I112:I113,I115:I118)</f>
-        <v>452810.20370370371</v>
+        <v>452431.22222222225</v>
       </c>
       <c r="K129" s="5">
         <f>AVERAGE(K8:K11,K18:K20,K22,K27:K30,K32:K33,K35:K38,K48:K51,K58:K60,K62,K67:K70,K72:K73,K75:K78,K88:K91,K98:K100,K102,K107:K110,K112:K113,K115:K118)</f>
-        <v>452992.64814814815</v>
+        <v>452713.51851851854</v>
       </c>
       <c r="M129" s="5">
         <f>AVERAGE(M8:M11,M18:M20,M22,M27:M30,M32:M33,M35:M38,M48:M51,M58:M60,M62,M67:M70,M72:M73,M75:M78,M88:M91,M98:M100,M102,M107:M110,M112:M113,M115:M118)</f>
-        <v>452994.53703703702</v>
+        <v>452708.94444444444</v>
       </c>
       <c r="O129" s="5">
         <f>AVERAGE(O8:O11,O18:O20,O22,O27:O30,O32:O33,O35:O38,O48:O51,O58:O60,O62,O67:O70,O72:O73,O75:O78,O88:O91,O98:O100,O102,O107:O110,O112:O113,O115:O118)</f>
-        <v>452999.25925925927</v>
+        <v>452710.11111111112</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="1" customFormat="1">
@@ -9295,31 +9299,31 @@
       </c>
       <c r="C130" s="5">
         <f>MEDIAN(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>187683</v>
+        <v>187744</v>
       </c>
       <c r="E130" s="5">
         <f>MEDIAN(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>187683</v>
+        <v>187744</v>
       </c>
       <c r="G130" s="5">
         <f>MEDIAN(G8:G11,G18:G20,G22,G27:G30,G32:G33,G35:G38,G48:G51,G58:G60,G62,G67:G70,G72:G73,G75:G78,G88:G91,G98:G100,G102,G107:G110,G112:G113,G115:G118)</f>
-        <v>187683</v>
+        <v>187744</v>
       </c>
       <c r="I130" s="5">
         <f>MEDIAN(I8:I11,I18:I20,I22,I27:I30,I32:I33,I35:I38,I48:I51,I58:I60,I62,I67:I70,I72:I73,I75:I78,I88:I91,I98:I100,I102,I107:I110,I112:I113,I115:I118)</f>
-        <v>187464.5</v>
+        <v>187450</v>
       </c>
       <c r="K130" s="5">
         <f>MEDIAN(K8:K11,K18:K20,K22,K27:K30,K32:K33,K35:K38,K48:K51,K58:K60,K62,K67:K70,K72:K73,K75:K78,K88:K91,K98:K100,K102,K107:K110,K112:K113,K115:K118)</f>
-        <v>187683</v>
+        <v>187744</v>
       </c>
       <c r="M130" s="5">
         <f>MEDIAN(M8:M11,M18:M20,M22,M27:M30,M32:M33,M35:M38,M48:M51,M58:M60,M62,M67:M70,M72:M73,M75:M78,M88:M91,M98:M100,M102,M107:M110,M112:M113,M115:M118)</f>
-        <v>187683</v>
+        <v>187744</v>
       </c>
       <c r="O130" s="5">
         <f>MEDIAN(O8:O11,O18:O20,O22,O27:O30,O32:O33,O35:O38,O48:O51,O58:O60,O62,O67:O70,O72:O73,O75:O78,O88:O91,O98:O100,O102,O107:O110,O112:O113,O115:O118)</f>
-        <v>187683</v>
+        <v>187744</v>
       </c>
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1">
@@ -9328,31 +9332,31 @@
       </c>
       <c r="C131" s="7">
         <f>SUM(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>24461967</v>
+        <v>24446182</v>
       </c>
       <c r="E131" s="7">
         <f>SUM(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>24461847</v>
+        <v>24446575</v>
       </c>
       <c r="G131" s="7">
         <f>SUM(G8:G11,G18:G20,G22,G27:G30,G32:G33,G35:G38,G48:G51,G58:G60,G62,G67:G70,G72:G73,G75:G78,G88:G91,G98:G100,G102,G107:G110,G112:G113,G115:G118)</f>
-        <v>24461964</v>
+        <v>24446561</v>
       </c>
       <c r="I131" s="7">
         <f>SUM(I8:I11,I18:I20,I22,I27:I30,I32:I33,I35:I38,I48:I51,I58:I60,I62,I67:I70,I72:I73,I75:I78,I88:I91,I98:I100,I102,I107:I110,I112:I113,I115:I118)</f>
-        <v>24451751</v>
+        <v>24431286</v>
       </c>
       <c r="K131" s="7">
         <f>SUM(K8:K11,K18:K20,K22,K27:K30,K32:K33,K35:K38,K48:K51,K58:K60,K62,K67:K70,K72:K73,K75:K78,K88:K91,K98:K100,K102,K107:K110,K112:K113,K115:K118)</f>
-        <v>24461603</v>
+        <v>24446530</v>
       </c>
       <c r="M131" s="7">
         <f>SUM(M8:M11,M18:M20,M22,M27:M30,M32:M33,M35:M38,M48:M51,M58:M60,M62,M67:M70,M72:M73,M75:M78,M88:M91,M98:M100,M102,M107:M110,M112:M113,M115:M118)</f>
-        <v>24461705</v>
+        <v>24446283</v>
       </c>
       <c r="O131" s="7">
         <f>SUM(O8:O11,O18:O20,O22,O27:O30,O32:O33,O35:O38,O48:O51,O58:O60,O62,O67:O70,O72:O73,O75:O78,O88:O91,O98:O100,O102,O107:O110,O112:O113,O115:O118)</f>
-        <v>24461960</v>
+        <v>24446346</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="1" customFormat="1">
@@ -9361,31 +9365,31 @@
       </c>
       <c r="C132" s="5">
         <f>AVERAGE(C43:C82)</f>
-        <v>48220.25</v>
+        <v>48201.65</v>
       </c>
       <c r="E132" s="5">
         <f>AVERAGE(E43:E82)</f>
-        <v>48217.85</v>
+        <v>48201.65</v>
       </c>
       <c r="G132" s="5">
         <f>AVERAGE(G43:G82)</f>
-        <v>48220.224999999999</v>
+        <v>48200.675000000003</v>
       </c>
       <c r="I132" s="5">
         <f>AVERAGE(I43:I82)</f>
-        <v>48202</v>
+        <v>48170.55</v>
       </c>
       <c r="K132" s="5">
         <f>AVERAGE(K43:K82)</f>
-        <v>48218.425000000003</v>
+        <v>48201.65</v>
       </c>
       <c r="M132" s="5">
         <f>AVERAGE(M43:M82)</f>
-        <v>48220.25</v>
+        <v>48198.875</v>
       </c>
       <c r="O132" s="5">
         <f>AVERAGE(O43:O82)</f>
-        <v>48220.25</v>
+        <v>48201.65</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="1" customFormat="1">
@@ -9394,31 +9398,31 @@
       </c>
       <c r="C133" s="5">
         <f>MEDIAN(C43:C82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="E133" s="5">
         <f>MEDIAN(E43:E82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="G133" s="5">
         <f>MEDIAN(G43:G82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="I133" s="5">
         <f>MEDIAN(I43:I82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="K133" s="5">
         <f>MEDIAN(K43:K82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="M133" s="5">
         <f>MEDIAN(M43:M82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="O133" s="5">
         <f>MEDIAN(O43:O82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1">
@@ -9427,31 +9431,31 @@
       </c>
       <c r="C134" s="7">
         <f>SUM(C43:C82)</f>
-        <v>1928810</v>
+        <v>1928066</v>
       </c>
       <c r="E134" s="7">
         <f>SUM(E43:E82)</f>
-        <v>1928714</v>
+        <v>1928066</v>
       </c>
       <c r="G134" s="7">
         <f>SUM(G43:G82)</f>
-        <v>1928809</v>
+        <v>1928027</v>
       </c>
       <c r="I134" s="7">
         <f>SUM(I43:I82)</f>
-        <v>1928080</v>
+        <v>1926822</v>
       </c>
       <c r="K134" s="7">
         <f>SUM(K43:K82)</f>
-        <v>1928737</v>
+        <v>1928066</v>
       </c>
       <c r="M134" s="7">
         <f>SUM(M43:M82)</f>
-        <v>1928810</v>
+        <v>1927955</v>
       </c>
       <c r="O134" s="7">
         <f>SUM(O43:O82)</f>
-        <v>1928810</v>
+        <v>1928066</v>
       </c>
     </row>
     <row r="135" spans="1:15" s="1" customFormat="1">
@@ -9460,31 +9464,31 @@
       </c>
       <c r="C135" s="5">
         <f>AVERAGE(C83:C122)</f>
-        <v>163020.75</v>
+        <v>162986.75</v>
       </c>
       <c r="E135" s="5">
         <f>AVERAGE(E83:E122)</f>
-        <v>163020.75</v>
+        <v>162986.75</v>
       </c>
       <c r="G135" s="5">
         <f>AVERAGE(G83:G122)</f>
-        <v>163020.75</v>
+        <v>162986.75</v>
       </c>
       <c r="I135" s="5">
         <f>AVERAGE(I83:I122)</f>
-        <v>162654.57500000001</v>
+        <v>162573.42499999999</v>
       </c>
       <c r="K135" s="5">
         <f>AVERAGE(K83:K122)</f>
-        <v>163020.75</v>
+        <v>162986.75</v>
       </c>
       <c r="M135" s="5">
         <f>AVERAGE(M83:M122)</f>
-        <v>163020.75</v>
+        <v>162986.75</v>
       </c>
       <c r="O135" s="5">
         <f>AVERAGE(O83:O122)</f>
-        <v>163020.75</v>
+        <v>162986.75</v>
       </c>
     </row>
     <row r="136" spans="1:15" s="1" customFormat="1">
@@ -9493,31 +9497,31 @@
       </c>
       <c r="C136" s="5">
         <f>MEDIAN(C83:C122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="E136" s="5">
         <f>MEDIAN(E83:E122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="G136" s="5">
         <f>MEDIAN(G83:G122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="I136" s="5">
         <f>MEDIAN(I83:I122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="K136" s="5">
         <f>MEDIAN(K83:K122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="M136" s="5">
         <f>MEDIAN(M83:M122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="O136" s="5">
         <f>MEDIAN(O83:O122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1">
@@ -9526,31 +9530,31 @@
       </c>
       <c r="C137" s="7">
         <f>SUM(C83:C122)</f>
-        <v>6520830</v>
+        <v>6519470</v>
       </c>
       <c r="E137" s="7">
         <f>SUM(E83:E122)</f>
-        <v>6520830</v>
+        <v>6519470</v>
       </c>
       <c r="G137" s="7">
         <f>SUM(G83:G122)</f>
-        <v>6520830</v>
+        <v>6519470</v>
       </c>
       <c r="I137" s="7">
         <f>SUM(I83:I122)</f>
-        <v>6506183</v>
+        <v>6502937</v>
       </c>
       <c r="K137" s="7">
         <f>SUM(K83:K122)</f>
-        <v>6520830</v>
+        <v>6519470</v>
       </c>
       <c r="M137" s="7">
         <f>SUM(M83:M122)</f>
-        <v>6520830</v>
+        <v>6519470</v>
       </c>
       <c r="O137" s="7">
         <f>SUM(O83:O122)</f>
-        <v>6520830</v>
+        <v>6519470</v>
       </c>
     </row>
     <row r="138" spans="1:15" s="1" customFormat="1">
@@ -9559,31 +9563,31 @@
       </c>
       <c r="C138" s="5">
         <f>AVERAGE(C3:C42)</f>
-        <v>552423.625</v>
+        <v>552152.375</v>
       </c>
       <c r="E138" s="5">
         <f>AVERAGE(E3:E42)</f>
-        <v>552423.02500000002</v>
+        <v>552162.19999999995</v>
       </c>
       <c r="G138" s="5">
         <f>AVERAGE(G3:G42)</f>
-        <v>552423.57499999995</v>
+        <v>552162.82499999995</v>
       </c>
       <c r="I138" s="5">
         <f>AVERAGE(I3:I42)</f>
-        <v>552552.65</v>
+        <v>552224.4</v>
       </c>
       <c r="K138" s="5">
         <f>AVERAGE(K3:K42)</f>
-        <v>552416.35</v>
+        <v>552161.07499999995</v>
       </c>
       <c r="M138" s="5">
         <f>AVERAGE(M3:M42)</f>
-        <v>552417.07499999995</v>
+        <v>552157.67500000005</v>
       </c>
       <c r="O138" s="5">
         <f>AVERAGE(O3:O42)</f>
-        <v>552423.44999999995</v>
+        <v>552156.47499999998</v>
       </c>
     </row>
     <row r="139" spans="1:15" s="1" customFormat="1">
@@ -9592,31 +9596,31 @@
       </c>
       <c r="C139" s="5">
         <f>MEDIAN(C3:C42)</f>
-        <v>242579.5</v>
+        <v>242500</v>
       </c>
       <c r="E139" s="5">
         <f>MEDIAN(E3:E42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
       <c r="G139" s="5">
         <f>MEDIAN(G3:G42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
       <c r="I139" s="5">
         <f>MEDIAN(I3:I42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
       <c r="K139" s="5">
         <f>MEDIAN(K3:K42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
       <c r="M139" s="5">
         <f>MEDIAN(M3:M42)</f>
-        <v>242576.5</v>
+        <v>242500.5</v>
       </c>
       <c r="O139" s="5">
         <f>MEDIAN(O3:O42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
     </row>
     <row r="140" spans="1:15" s="2" customFormat="1">
@@ -9625,31 +9629,31 @@
       </c>
       <c r="C140" s="7">
         <f>SUM(C3:C42)</f>
-        <v>22096945</v>
+        <v>22086095</v>
       </c>
       <c r="E140" s="7">
         <f>SUM(E3:E42)</f>
-        <v>22096921</v>
+        <v>22086488</v>
       </c>
       <c r="G140" s="7">
         <f>SUM(G3:G42)</f>
-        <v>22096943</v>
+        <v>22086513</v>
       </c>
       <c r="I140" s="7">
         <f>SUM(I3:I42)</f>
-        <v>22102106</v>
+        <v>22088976</v>
       </c>
       <c r="K140" s="7">
         <f>SUM(K3:K42)</f>
-        <v>22096654</v>
+        <v>22086443</v>
       </c>
       <c r="M140" s="7">
         <f>SUM(M3:M42)</f>
-        <v>22096683</v>
+        <v>22086307</v>
       </c>
       <c r="O140" s="7">
         <f>SUM(O3:O42)</f>
-        <v>22096938</v>
+        <v>22086259</v>
       </c>
     </row>
   </sheetData>
